--- a/src/public/uploads/EjecucionFinanciera_EstructuraPlan.xlsx
+++ b/src/public/uploads/EjecucionFinanciera_EstructuraPlan.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliocesarmendoza/Desktop/pipApp/Backend-pi/src/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A5CAE9-837B-E445-A271-A7ED6200C9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899C73E-950B-9D4D-BB4F-4D9EE1FE2507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37980" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="6320" windowWidth="37980" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejec_financ_plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Estructura_plan" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ejec_financ_plan!$A$1:$E$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="283">
   <si>
     <t>CodLinea</t>
   </si>
@@ -429,10 +433,460 @@
     <t>Ejecutado</t>
   </si>
   <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Gobernanza y Gobernabilidad</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Seguridades</t>
+  </si>
+  <si>
+    <t>Ecociudad</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Movilidad sostenible e inteligente</t>
+  </si>
+  <si>
+    <t>Infraestructura para la movilidad sostenible e incluyente</t>
+  </si>
+  <si>
+    <t>Articulación y coordinación institucional para la seguridad territorial</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Paz, víctimas y justicia</t>
+  </si>
+  <si>
+    <t>Medellín me Cuida</t>
+  </si>
+  <si>
+    <t>Comunidades, cuerpos y mentes saludables</t>
+  </si>
+  <si>
+    <t>Medellín vive el deporte, la recreación y la actividad física</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Planeación, articulación y fortalecimiento territorial</t>
+  </si>
+  <si>
+    <t>Gobierno Transparente</t>
+  </si>
+  <si>
+    <t>Liderazgo público y fortalecimiento de la gestión institucional</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Urbanismo ecológico</t>
+  </si>
+  <si>
+    <t>Gestión de la infraestructura verde</t>
+  </si>
+  <si>
+    <t>Juventudes</t>
+  </si>
+  <si>
+    <t>Medellín caminable y pedaleable</t>
+  </si>
+  <si>
+    <t>Transformación Educativa y Cultural</t>
+  </si>
+  <si>
+    <t>Educación para todos y todas</t>
+  </si>
+  <si>
+    <t>Educación diversa</t>
+  </si>
+  <si>
+    <t>A clase vamos todos y todas</t>
+  </si>
+  <si>
+    <t>Servicios públicos, energías alternativas y aprovechamiento de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Espacio público para el disfrute colectivo y la sostenibilidad territorial</t>
+  </si>
+  <si>
+    <t>Ahorro, consumo racional y gestión de servicios públicos</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Infraestructura y ambientes de aprendizaje</t>
+  </si>
+  <si>
+    <t>Infraestructura para una Ciudad Universitaria</t>
+  </si>
+  <si>
+    <t>Institucionalidad para la paz y acceso a la justicia</t>
+  </si>
+  <si>
+    <t>Conservación y protección de todas las formas de vida</t>
+  </si>
+  <si>
+    <t>Protección y gestión de la biodiversidad</t>
+  </si>
+  <si>
+    <t>Renovación urbana integral, transformación territorial y protección a moradores</t>
+  </si>
+  <si>
+    <t>Movilidad segura e inteligente con innovación y tecnología</t>
+  </si>
+  <si>
+    <t>Recuperemos lo Social</t>
+  </si>
+  <si>
+    <t>Canasta básica de derechos</t>
+  </si>
+  <si>
+    <t>Transformación Curricular para la Cuarta revolución Industrial</t>
+  </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>Investigación, creación y apropiación de saberes</t>
+  </si>
+  <si>
+    <t>Aula segura y amigable</t>
+  </si>
+  <si>
+    <t>Reactivación Económica y Valle del Software</t>
+  </si>
+  <si>
+    <t>Ciencia, Tecnología, Innovación y Emprendimiento: CTI + E</t>
+  </si>
+  <si>
+    <t>Medellín ciudad de la ciencia y el conocimiento</t>
+  </si>
+  <si>
+    <t>Planeación territorial para el Desarrollo</t>
+  </si>
+  <si>
+    <t>Cultura digital</t>
+  </si>
+  <si>
+    <t>Medellín cuida y reconoce a sus grupos poblacionales</t>
+  </si>
+  <si>
+    <t>Productividad, competitividad e internacionalización</t>
+  </si>
+  <si>
+    <t>Medellín me cuida: Salud</t>
+  </si>
+  <si>
+    <t>Infraestructura, equipamientos y acceso a los servicios de salud</t>
+  </si>
+  <si>
+    <t>Pertinencia, calidad y habilidades para la educación del futuro</t>
+  </si>
+  <si>
+    <t>Gestión del riesgo de desastres, del medio ambiente y adaptación al cambio climático</t>
+  </si>
+  <si>
+    <t>Información, datos y generación de valor público</t>
+  </si>
+  <si>
+    <t>Gobernanza de datos</t>
+  </si>
+  <si>
+    <t>Buen Comienzo</t>
+  </si>
+  <si>
+    <t>Buen comienzo para una escuela pertinente y oportuna</t>
+  </si>
+  <si>
+    <t>Control territorial y gestión catastral</t>
+  </si>
+  <si>
+    <t>Corregimientos y Desarrollo rural sostenible</t>
+  </si>
+  <si>
+    <t>Producción rural para el desarrollo</t>
+  </si>
+  <si>
+    <t>Direccionamiento Jurídico Público</t>
+  </si>
+  <si>
+    <t>Medellín me cuida- Gestores Familia</t>
+  </si>
+  <si>
+    <t>Ambientes escolares de calidad para Medellín Futuro</t>
+  </si>
+  <si>
+    <t>El futuro se parece a nosotros</t>
+  </si>
+  <si>
+    <t>Educación y sostenibilidad ambiental</t>
+  </si>
+  <si>
+    <t>Movilidad con tecnologías más limpias y nuevas tendencias</t>
+  </si>
+  <si>
+    <t>Talento Humano y Empleo</t>
+  </si>
+  <si>
+    <t>Inserción laboral</t>
+  </si>
+  <si>
+    <t>Centralidades y equipamientos para el desarrollo</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Buen Comienzo 1000 días para mejores familias</t>
+  </si>
+  <si>
+    <t>Cultura, arte y memoria</t>
+  </si>
+  <si>
+    <t>Patrimonio cultural, memoria e identidades</t>
+  </si>
+  <si>
+    <t>Promoción de la convivencia ciudadana</t>
+  </si>
+  <si>
+    <t>Vigilancia en salud</t>
+  </si>
+  <si>
+    <t>Gestión del conocimiento y la innovación social para la participación</t>
+  </si>
+  <si>
+    <t>Promoción y profundización de la democracia</t>
+  </si>
+  <si>
+    <t>Garantías diferenciales para las víctimas</t>
+  </si>
+  <si>
+    <t>Planeación para la gestión local de la seguridad y la convivencia</t>
+  </si>
+  <si>
+    <t>Gestión financiera, eficiente y sostenible</t>
+  </si>
+  <si>
+    <t>Medellín territorio cultural</t>
+  </si>
+  <si>
+    <t>Inteligencia, tecnología e infraestructura para la seguridad y la convivencia</t>
+  </si>
+  <si>
+    <t>Medellín vive las artes y la cultura</t>
+  </si>
+  <si>
+    <t>Cultura ciudadana</t>
+  </si>
+  <si>
+    <t>Transformación de patrones culturales para la igualdad de género</t>
+  </si>
+  <si>
+    <t>Jóvenes en el Valle del Software</t>
+  </si>
+  <si>
+    <t>Liderazgo y empoderamiento femenino</t>
+  </si>
+  <si>
+    <t>Economía Circular y Gestión de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Gestión Integral del sistema hidrográfico</t>
+  </si>
+  <si>
+    <t>Sinergias territoriales para el futuro de Medellín</t>
+  </si>
+  <si>
+    <t>Seguridad, vida libre de violencias y protección integral para las mujeres</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Resignificación de los Proyectos Educativos Institucionales PEI</t>
+  </si>
+  <si>
+    <t>Autonomía económica para las mujeres y su incorporación en el Valle del software</t>
+  </si>
+  <si>
+    <t>Memoria histórica, construcción de paz y superación del conflicto</t>
+  </si>
+  <si>
+    <t>Vivienda, hábitat sostenible y mejoramiento integral de barrios</t>
+  </si>
+  <si>
+    <t>Protección de la vida animal</t>
+  </si>
+  <si>
+    <t>Muévete a Medellín</t>
+  </si>
+  <si>
+    <t>Institucionalidad de la cultura y las artes de Medellín</t>
+  </si>
+  <si>
+    <t>Condiciones de vida dignas y equitativas para las mujeres</t>
+  </si>
+  <si>
+    <t>Tecnología social</t>
+  </si>
+  <si>
+    <t>Acciones de fortalecimiento social para el cuidado y la protección</t>
+  </si>
+  <si>
+    <t>Promoción y protección de los Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de las organizaciones sociales y comunitarias para la participación</t>
+  </si>
+  <si>
+    <t>5.5.5</t>
+  </si>
+  <si>
+    <t>Alianzas territoriales para la gestión de la migración poblacional</t>
+  </si>
+  <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
+    <t>Gobernanza y gestión estratégica de las comunicaciones</t>
+  </si>
+  <si>
+    <t>Direccionamiento estratégico del conglomerado Público de Medellín</t>
+  </si>
+  <si>
+    <t>Economía creativa</t>
+  </si>
+  <si>
+    <t>Talento humano para el buen gobierno</t>
+  </si>
+  <si>
+    <t>Juventud que teje vida</t>
+  </si>
+  <si>
+    <t>Ciudadanos de Futuro: cívicos, pacíficos y solidarios</t>
+  </si>
+  <si>
+    <t>Hábitat Joven</t>
+  </si>
+  <si>
+    <t>Tecnologías en salud, gestión de información y del conocimiento</t>
+  </si>
+  <si>
+    <t>Planeación y presupuestos sensibles a la perspectiva de género</t>
+  </si>
+  <si>
+    <t>Incidencia y organización juvenil</t>
+  </si>
+  <si>
+    <t>Desarrollo rural sostenible</t>
+  </si>
+  <si>
+    <t>Gobierno abierto y cercano</t>
+  </si>
+  <si>
+    <t>Dinamización economías tradicionales</t>
+  </si>
+  <si>
+    <t>Maestros/as: Líderes de Futuro</t>
+  </si>
+  <si>
+    <t>Innovación pedagógica para nuevas capacidades</t>
+  </si>
+  <si>
+    <t>Formación ciudadana para la participación</t>
+  </si>
+  <si>
+    <t>Gobernanza y Movilización para la participación</t>
+  </si>
+  <si>
+    <t>Procesos y medios comunitarios</t>
+  </si>
+  <si>
+    <t>Financiación e inversión para el desarrollo y la innovación</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Internacionalización empresarial</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Transformación digital de la economía</t>
+  </si>
+  <si>
+    <t>Cultura centro</t>
+  </si>
+  <si>
+    <t>Gobierno digital</t>
+  </si>
+  <si>
+    <t>Transformación cultural para la movilidad sostenible y segura</t>
+  </si>
+  <si>
+    <t>Reentrenamiento y formación masiva en la industria 4.0</t>
+  </si>
+  <si>
+    <t>Centros del Valle del Software</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Ciudad inteligente</t>
+  </si>
+  <si>
+    <t>Inglés para Valle del Software</t>
+  </si>
+  <si>
+    <t>Semilla bilingüe para Valle del Software</t>
+  </si>
+  <si>
+    <t>Docentes cualificados para el Medellín Futuro</t>
+  </si>
+  <si>
+    <t>Infraestructura y equipamientos culturales</t>
+  </si>
+  <si>
+    <t>Salud ambiental</t>
+  </si>
+  <si>
+    <t>Salud pública juvenil</t>
+  </si>
+  <si>
+    <t>Información para la planeación</t>
+  </si>
+  <si>
+    <t>Investigación, innovación y retos de ciudad</t>
+  </si>
+  <si>
+    <t>Reactivación y transformación del sector turístico Pos-COVID-19</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Un buen comienzo para la nutrición</t>
+  </si>
+  <si>
+    <t>Bienestar Docente</t>
+  </si>
+  <si>
+    <t>codigo_estructura</t>
+  </si>
+  <si>
+    <t>Nombre_estructura</t>
   </si>
 </sst>
 </file>
@@ -440,9 +894,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,14 +908,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,14 +942,8 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -504,36 +966,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{21638BB1-21FD-E34D-8CD6-8DDFE3DEA64B}"/>
     <cellStyle name="Normal_Hoja1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Hoja2" xfId="2" xr:uid="{86D3A966-F58A-8C4E-A684-3608CEA1B384}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,22 +1299,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="30.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -835,1709 +1325,5504 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>4827319610</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>4388250210</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>4209781596</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2884085407</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>8134266828</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>5259664625</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>4121027283</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>3122915206</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>14500000000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>14500000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>7554918493</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>7087985044</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>5775000000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>5775000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>8702742233</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5900362137</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>13137518730</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>9357879815</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>8142319295</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>2830361501</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>23864541048</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>18317801206</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>710472679</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>247839674</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1352992791</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1157157591</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>153339595992</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>120761139108</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>35569825653</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>12208632167</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>249445857472</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>149656590518</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>13423313605</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>10096009098</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>54088624744</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>49658917735</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>5332628458</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>2521897964</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>651758006600</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>508840492113</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>86116641</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>24500000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>25999628529</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>6995501500</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>168804239663</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>130266989926</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>1634822343</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>1021688680</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>1212075343</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>990929826</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>35213561499</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>30857793694</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>45925161440</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>38448799040</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>4241687360</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>2869503665</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>16551988370</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>2593031934</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>2000000000</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>1552378150</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>200000000</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>155212534</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>950000000</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>950000000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>26829496149</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>26781836311</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>1535618284</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>1027594540</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>5543999199</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>5532570514</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>9574732580</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>8319737586</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>854174806726</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>654954805437</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>59157956393</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>49922905210</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>100000000</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>100000000</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>1265917947</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>1265917946</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>3</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>2318735783</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>2318735781</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>719576456</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>184217471</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>3</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>774757585</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>774757585</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>4620736599</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>4242271464</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>1640794230</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="4">
         <v>1484025556</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>880452364</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>826673862</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>6626562954</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>6619953373</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>3</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>3377385617</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="4">
         <v>1917344462</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>125528818601</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <v>118197042739</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>138589046916</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>122642828391</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>23471679012</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>18912217179</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>3</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>57577010246</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>53376394988</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>5907093261</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <v>4908085925</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>128847413662</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>89291141152</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>4</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>37018810472</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <v>18330390511</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>4</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>45654187673</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>29011765162</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>363738508655</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>99350322391</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>3035042735</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <v>2080586941</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>267899755717</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="4">
         <v>172028548663</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>5624136506</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="4">
         <v>4885229625</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>18715833792</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="4">
         <v>14027183533</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>4</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>11210436124</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <v>10995965733</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>2148256294</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="4">
         <v>1735530678</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>4</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>34466126991</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="4">
         <v>10291533223</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>9020688784</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="4">
         <v>4055527648</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>4</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>132711370884</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="4">
         <v>93305940022</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>52594169991</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <v>18875228956</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>34981046801</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="4">
         <v>19210039196</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>4</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>93464803953</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="4">
         <v>69406840575</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>9204488291</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="4">
         <v>9108818491</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>8703667932</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="4">
         <v>1417386606</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>4</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>13199893591</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="4">
         <v>5892563570</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>5</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>69442395283</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="4">
         <v>14432902742</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>11650135817</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <v>6968586378</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>5</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>650000000</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <v>188683333</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>5</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>55908566350</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="4">
         <v>28373489869</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>5</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>181255992094</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="4">
         <v>104910871994</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>5</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>2987518837</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="4">
         <v>2320816331</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>5</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>27405894314</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="4">
         <v>21459907605</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>5</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>12833133389</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="4">
         <v>11572088548</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>5</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="A82" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>11908880598</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="4">
         <v>9788179077</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>5</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>13275088306</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="4">
         <v>8339673923</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>5</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>104250921890</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="4">
         <v>81110390388</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>5</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>6576100013</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="4">
         <v>4226691710</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>5</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>27264302880</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="4">
         <v>22380823300</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>5</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>36654252375</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="4">
         <v>4291973288</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>5</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>8679808567</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="4">
         <v>5286031198</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>5</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>11341368950</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="4">
         <v>7117974350</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>5</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>445343461</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="4">
         <v>437343461</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>5</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <v>2027301186</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="4">
         <v>1903146530</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>5</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <v>9592357497</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="4">
         <v>7573297573</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>5</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="4">
         <v>433000000</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="4">
         <v>412542716</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>5</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <v>10316569586</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="4">
         <v>7537174249</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>5</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="4">
         <v>119082645598</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="4">
         <v>115194125512</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>5</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="4">
         <v>29445596436</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="4">
         <v>23335222094</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>5</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="A97" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>256000000</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="4">
         <v>238676562</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>5</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <v>21493905907</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="4">
         <v>18269565605</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>5</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="A99" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <v>1043000000</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="4">
         <v>1043000000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" s="7">
-        <v>231415176872</v>
-      </c>
-      <c r="E100" s="7">
-        <v>135277103505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="9">
-        <f>SUM(D2:D100)</f>
-        <v>5180899106254</v>
-      </c>
-      <c r="E101" s="9">
-        <f>SUM(E2:E100)</f>
-        <v>3552900050905</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E99" xr:uid="{1FA5FD38-27CC-8C4E-8424-0868479A82ED}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8056E-7679-D344-A911-02CF0814054A}">
+  <dimension ref="A1:B811"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203"/>
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204"/>
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207"/>
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208"/>
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209"/>
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210"/>
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211"/>
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212"/>
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213"/>
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214"/>
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215"/>
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216"/>
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217"/>
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218"/>
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219"/>
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220"/>
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221"/>
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222"/>
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223"/>
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224"/>
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225"/>
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226"/>
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227"/>
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228"/>
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229"/>
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230"/>
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231"/>
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232"/>
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233"/>
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234"/>
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235"/>
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236"/>
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237"/>
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238"/>
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239"/>
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240"/>
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241"/>
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242"/>
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243"/>
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244"/>
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245"/>
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246"/>
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247"/>
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248"/>
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249"/>
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250"/>
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251"/>
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252"/>
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253"/>
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254"/>
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255"/>
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256"/>
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257"/>
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258"/>
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259"/>
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260"/>
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261"/>
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262"/>
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263"/>
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264"/>
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265"/>
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266"/>
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267"/>
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268"/>
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269"/>
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270"/>
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271"/>
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272"/>
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273"/>
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274"/>
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275"/>
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276"/>
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277"/>
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278"/>
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279"/>
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280"/>
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281"/>
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282"/>
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283"/>
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284"/>
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285"/>
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286"/>
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287"/>
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288"/>
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289"/>
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290"/>
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291"/>
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292"/>
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293"/>
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294"/>
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295"/>
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296"/>
+      <c r="B296"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297"/>
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298"/>
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299"/>
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300"/>
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301"/>
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302"/>
+      <c r="B302"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303"/>
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304"/>
+      <c r="B304"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+      <c r="B309"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+      <c r="B310"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311"/>
+      <c r="B311"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312"/>
+      <c r="B312"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313"/>
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314"/>
+      <c r="B314"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315"/>
+      <c r="B315"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316"/>
+      <c r="B316"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317"/>
+      <c r="B317"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318"/>
+      <c r="B318"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319"/>
+      <c r="B319"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320"/>
+      <c r="B320"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321"/>
+      <c r="B321"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322"/>
+      <c r="B322"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323"/>
+      <c r="B323"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324"/>
+      <c r="B324"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325"/>
+      <c r="B325"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326"/>
+      <c r="B326"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327"/>
+      <c r="B327"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328"/>
+      <c r="B328"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329"/>
+      <c r="B329"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330"/>
+      <c r="B330"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331"/>
+      <c r="B331"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332"/>
+      <c r="B332"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333"/>
+      <c r="B333"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334"/>
+      <c r="B334"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335"/>
+      <c r="B335"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336"/>
+      <c r="B336"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337"/>
+      <c r="B337"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338"/>
+      <c r="B338"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339"/>
+      <c r="B339"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340"/>
+      <c r="B340"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341"/>
+      <c r="B341"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342"/>
+      <c r="B342"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343"/>
+      <c r="B343"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344"/>
+      <c r="B344"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345"/>
+      <c r="B345"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346"/>
+      <c r="B346"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347"/>
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348"/>
+      <c r="B348"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349"/>
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350"/>
+      <c r="B350"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351"/>
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352"/>
+      <c r="B352"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353"/>
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354"/>
+      <c r="B354"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355"/>
+      <c r="B355"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356"/>
+      <c r="B356"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357"/>
+      <c r="B357"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358"/>
+      <c r="B358"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359"/>
+      <c r="B359"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360"/>
+      <c r="B360"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361"/>
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362"/>
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363"/>
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364"/>
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365"/>
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366"/>
+      <c r="B366"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367"/>
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368"/>
+      <c r="B368"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369"/>
+      <c r="B369"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370"/>
+      <c r="B370"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371"/>
+      <c r="B371"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372"/>
+      <c r="B372"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373"/>
+      <c r="B373"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374"/>
+      <c r="B374"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375"/>
+      <c r="B375"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376"/>
+      <c r="B376"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377"/>
+      <c r="B377"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378"/>
+      <c r="B378"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379"/>
+      <c r="B379"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380"/>
+      <c r="B380"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381"/>
+      <c r="B381"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382"/>
+      <c r="B382"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383"/>
+      <c r="B383"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384"/>
+      <c r="B384"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385"/>
+      <c r="B385"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386"/>
+      <c r="B386"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387"/>
+      <c r="B387"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388"/>
+      <c r="B388"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389"/>
+      <c r="B389"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390"/>
+      <c r="B390"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391"/>
+      <c r="B391"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392"/>
+      <c r="B392"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393"/>
+      <c r="B393"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394"/>
+      <c r="B394"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395"/>
+      <c r="B395"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396"/>
+      <c r="B396"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397"/>
+      <c r="B397"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398"/>
+      <c r="B398"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399"/>
+      <c r="B399"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400"/>
+      <c r="B400"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401"/>
+      <c r="B401"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402"/>
+      <c r="B402"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403"/>
+      <c r="B403"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404"/>
+      <c r="B404"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405"/>
+      <c r="B405"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406"/>
+      <c r="B406"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407"/>
+      <c r="B407"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408"/>
+      <c r="B408"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409"/>
+      <c r="B409"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410"/>
+      <c r="B410"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411"/>
+      <c r="B411"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412"/>
+      <c r="B412"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413"/>
+      <c r="B413"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414"/>
+      <c r="B414"/>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415"/>
+      <c r="B415"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416"/>
+      <c r="B416"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417"/>
+      <c r="B417"/>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418"/>
+      <c r="B418"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419"/>
+      <c r="B419"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420"/>
+      <c r="B420"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421"/>
+      <c r="B421"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422"/>
+      <c r="B422"/>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423"/>
+      <c r="B423"/>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424"/>
+      <c r="B424"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425"/>
+      <c r="B425"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426"/>
+      <c r="B426"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427"/>
+      <c r="B427"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428"/>
+      <c r="B428"/>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429"/>
+      <c r="B429"/>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430"/>
+      <c r="B430"/>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431"/>
+      <c r="B431"/>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432"/>
+      <c r="B432"/>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433"/>
+      <c r="B433"/>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434"/>
+      <c r="B434"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435"/>
+      <c r="B435"/>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436"/>
+      <c r="B436"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437"/>
+      <c r="B437"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438"/>
+      <c r="B438"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439"/>
+      <c r="B439"/>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440"/>
+      <c r="B440"/>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441"/>
+      <c r="B441"/>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442"/>
+      <c r="B442"/>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443"/>
+      <c r="B443"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444"/>
+      <c r="B444"/>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445"/>
+      <c r="B445"/>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446"/>
+      <c r="B446"/>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447"/>
+      <c r="B447"/>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448"/>
+      <c r="B448"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449"/>
+      <c r="B449"/>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450"/>
+      <c r="B450"/>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451"/>
+      <c r="B451"/>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452"/>
+      <c r="B452"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453"/>
+      <c r="B453"/>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454"/>
+      <c r="B454"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455"/>
+      <c r="B455"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456"/>
+      <c r="B456"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457"/>
+      <c r="B457"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458"/>
+      <c r="B458"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459"/>
+      <c r="B459"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460"/>
+      <c r="B460"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461"/>
+      <c r="B461"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462"/>
+      <c r="B462"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463"/>
+      <c r="B463"/>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464"/>
+      <c r="B464"/>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465"/>
+      <c r="B465"/>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466"/>
+      <c r="B466"/>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467"/>
+      <c r="B467"/>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468"/>
+      <c r="B468"/>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469"/>
+      <c r="B469"/>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470"/>
+      <c r="B470"/>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471"/>
+      <c r="B471"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472"/>
+      <c r="B472"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473"/>
+      <c r="B473"/>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474"/>
+      <c r="B474"/>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475"/>
+      <c r="B475"/>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476"/>
+      <c r="B476"/>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477"/>
+      <c r="B477"/>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478"/>
+      <c r="B478"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479"/>
+      <c r="B479"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480"/>
+      <c r="B480"/>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481"/>
+      <c r="B481"/>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482"/>
+      <c r="B482"/>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483"/>
+      <c r="B483"/>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484"/>
+      <c r="B484"/>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485"/>
+      <c r="B485"/>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486"/>
+      <c r="B486"/>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487"/>
+      <c r="B487"/>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488"/>
+      <c r="B488"/>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489"/>
+      <c r="B489"/>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490"/>
+      <c r="B490"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491"/>
+      <c r="B491"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492"/>
+      <c r="B492"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493"/>
+      <c r="B493"/>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494"/>
+      <c r="B494"/>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495"/>
+      <c r="B495"/>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496"/>
+      <c r="B496"/>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497"/>
+      <c r="B497"/>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498"/>
+      <c r="B498"/>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499"/>
+      <c r="B499"/>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500"/>
+      <c r="B500"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501"/>
+      <c r="B501"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502"/>
+      <c r="B502"/>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503"/>
+      <c r="B503"/>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504"/>
+      <c r="B504"/>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505"/>
+      <c r="B505"/>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506"/>
+      <c r="B506"/>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507"/>
+      <c r="B507"/>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508"/>
+      <c r="B508"/>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509"/>
+      <c r="B509"/>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510"/>
+      <c r="B510"/>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511"/>
+      <c r="B511"/>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512"/>
+      <c r="B512"/>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513"/>
+      <c r="B513"/>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514"/>
+      <c r="B514"/>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515"/>
+      <c r="B515"/>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516"/>
+      <c r="B516"/>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517"/>
+      <c r="B517"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518"/>
+      <c r="B518"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519"/>
+      <c r="B519"/>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520"/>
+      <c r="B520"/>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521"/>
+      <c r="B521"/>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522"/>
+      <c r="B522"/>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523"/>
+      <c r="B523"/>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524"/>
+      <c r="B524"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525"/>
+      <c r="B525"/>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526"/>
+      <c r="B526"/>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527"/>
+      <c r="B527"/>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528"/>
+      <c r="B528"/>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529"/>
+      <c r="B529"/>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530"/>
+      <c r="B530"/>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531"/>
+      <c r="B531"/>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532"/>
+      <c r="B532"/>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533"/>
+      <c r="B533"/>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534"/>
+      <c r="B534"/>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535"/>
+      <c r="B535"/>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536"/>
+      <c r="B536"/>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537"/>
+      <c r="B537"/>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538"/>
+      <c r="B538"/>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539"/>
+      <c r="B539"/>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540"/>
+      <c r="B540"/>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541"/>
+      <c r="B541"/>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542"/>
+      <c r="B542"/>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543"/>
+      <c r="B543"/>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544"/>
+      <c r="B544"/>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545"/>
+      <c r="B545"/>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546"/>
+      <c r="B546"/>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547"/>
+      <c r="B547"/>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548"/>
+      <c r="B548"/>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549"/>
+      <c r="B549"/>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550"/>
+      <c r="B550"/>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551"/>
+      <c r="B551"/>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552"/>
+      <c r="B552"/>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553"/>
+      <c r="B553"/>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554"/>
+      <c r="B554"/>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555"/>
+      <c r="B555"/>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556"/>
+      <c r="B556"/>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557"/>
+      <c r="B557"/>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558"/>
+      <c r="B558"/>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559"/>
+      <c r="B559"/>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560"/>
+      <c r="B560"/>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561"/>
+      <c r="B561"/>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562"/>
+      <c r="B562"/>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563"/>
+      <c r="B563"/>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564"/>
+      <c r="B564"/>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565"/>
+      <c r="B565"/>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566"/>
+      <c r="B566"/>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567"/>
+      <c r="B567"/>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568"/>
+      <c r="B568"/>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569"/>
+      <c r="B569"/>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570"/>
+      <c r="B570"/>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571"/>
+      <c r="B571"/>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572"/>
+      <c r="B572"/>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573"/>
+      <c r="B573"/>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574"/>
+      <c r="B574"/>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575"/>
+      <c r="B575"/>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576"/>
+      <c r="B576"/>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577"/>
+      <c r="B577"/>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578"/>
+      <c r="B578"/>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579"/>
+      <c r="B579"/>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580"/>
+      <c r="B580"/>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581"/>
+      <c r="B581"/>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582"/>
+      <c r="B582"/>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583"/>
+      <c r="B583"/>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584"/>
+      <c r="B584"/>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585"/>
+      <c r="B585"/>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586"/>
+      <c r="B586"/>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587"/>
+      <c r="B587"/>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588"/>
+      <c r="B588"/>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589"/>
+      <c r="B589"/>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590"/>
+      <c r="B590"/>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591"/>
+      <c r="B591"/>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592"/>
+      <c r="B592"/>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593"/>
+      <c r="B593"/>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594"/>
+      <c r="B594"/>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595"/>
+      <c r="B595"/>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596"/>
+      <c r="B596"/>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597"/>
+      <c r="B597"/>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598"/>
+      <c r="B598"/>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599"/>
+      <c r="B599"/>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600"/>
+      <c r="B600"/>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601"/>
+      <c r="B601"/>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602"/>
+      <c r="B602"/>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603"/>
+      <c r="B603"/>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604"/>
+      <c r="B604"/>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605"/>
+      <c r="B605"/>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606"/>
+      <c r="B606"/>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607"/>
+      <c r="B607"/>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608"/>
+      <c r="B608"/>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609"/>
+      <c r="B609"/>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610"/>
+      <c r="B610"/>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611"/>
+      <c r="B611"/>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612"/>
+      <c r="B612"/>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613"/>
+      <c r="B613"/>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614"/>
+      <c r="B614"/>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615"/>
+      <c r="B615"/>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616"/>
+      <c r="B616"/>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617"/>
+      <c r="B617"/>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618"/>
+      <c r="B618"/>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619"/>
+      <c r="B619"/>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620"/>
+      <c r="B620"/>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621"/>
+      <c r="B621"/>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622"/>
+      <c r="B622"/>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623"/>
+      <c r="B623"/>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624"/>
+      <c r="B624"/>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625"/>
+      <c r="B625"/>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626"/>
+      <c r="B626"/>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627"/>
+      <c r="B627"/>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628"/>
+      <c r="B628"/>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629"/>
+      <c r="B629"/>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630"/>
+      <c r="B630"/>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631"/>
+      <c r="B631"/>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632"/>
+      <c r="B632"/>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633"/>
+      <c r="B633"/>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634"/>
+      <c r="B634"/>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635"/>
+      <c r="B635"/>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636"/>
+      <c r="B636"/>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637"/>
+      <c r="B637"/>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638"/>
+      <c r="B638"/>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639"/>
+      <c r="B639"/>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640"/>
+      <c r="B640"/>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641"/>
+      <c r="B641"/>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642"/>
+      <c r="B642"/>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643"/>
+      <c r="B643"/>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644"/>
+      <c r="B644"/>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645"/>
+      <c r="B645"/>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646"/>
+      <c r="B646"/>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647"/>
+      <c r="B647"/>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648"/>
+      <c r="B648"/>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649"/>
+      <c r="B649"/>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650"/>
+      <c r="B650"/>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651"/>
+      <c r="B651"/>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652"/>
+      <c r="B652"/>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653"/>
+      <c r="B653"/>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654"/>
+      <c r="B654"/>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655"/>
+      <c r="B655"/>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656"/>
+      <c r="B656"/>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657"/>
+      <c r="B657"/>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658"/>
+      <c r="B658"/>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659"/>
+      <c r="B659"/>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660"/>
+      <c r="B660"/>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661"/>
+      <c r="B661"/>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662"/>
+      <c r="B662"/>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663"/>
+      <c r="B663"/>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664"/>
+      <c r="B664"/>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665"/>
+      <c r="B665"/>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666"/>
+      <c r="B666"/>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667"/>
+      <c r="B667"/>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668"/>
+      <c r="B668"/>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669"/>
+      <c r="B669"/>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670"/>
+      <c r="B670"/>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671"/>
+      <c r="B671"/>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672"/>
+      <c r="B672"/>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673"/>
+      <c r="B673"/>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674"/>
+      <c r="B674"/>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675"/>
+      <c r="B675"/>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676"/>
+      <c r="B676"/>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677"/>
+      <c r="B677"/>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678"/>
+      <c r="B678"/>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679"/>
+      <c r="B679"/>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680"/>
+      <c r="B680"/>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681"/>
+      <c r="B681"/>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682"/>
+      <c r="B682"/>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683"/>
+      <c r="B683"/>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684"/>
+      <c r="B684"/>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685"/>
+      <c r="B685"/>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686"/>
+      <c r="B686"/>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687"/>
+      <c r="B687"/>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688"/>
+      <c r="B688"/>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689"/>
+      <c r="B689"/>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690"/>
+      <c r="B690"/>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691"/>
+      <c r="B691"/>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692"/>
+      <c r="B692"/>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693"/>
+      <c r="B693"/>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694"/>
+      <c r="B694"/>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695"/>
+      <c r="B695"/>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696"/>
+      <c r="B696"/>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697"/>
+      <c r="B697"/>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698"/>
+      <c r="B698"/>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699"/>
+      <c r="B699"/>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700"/>
+      <c r="B700"/>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701"/>
+      <c r="B701"/>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702"/>
+      <c r="B702"/>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703"/>
+      <c r="B703"/>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704"/>
+      <c r="B704"/>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705"/>
+      <c r="B705"/>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706"/>
+      <c r="B706"/>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707"/>
+      <c r="B707"/>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708"/>
+      <c r="B708"/>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709"/>
+      <c r="B709"/>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710"/>
+      <c r="B710"/>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711"/>
+      <c r="B711"/>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712"/>
+      <c r="B712"/>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713"/>
+      <c r="B713"/>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714"/>
+      <c r="B714"/>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715"/>
+      <c r="B715"/>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716"/>
+      <c r="B716"/>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717"/>
+      <c r="B717"/>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718"/>
+      <c r="B718"/>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719"/>
+      <c r="B719"/>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720"/>
+      <c r="B720"/>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721"/>
+      <c r="B721"/>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722"/>
+      <c r="B722"/>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723"/>
+      <c r="B723"/>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724"/>
+      <c r="B724"/>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725"/>
+      <c r="B725"/>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726"/>
+      <c r="B726"/>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727"/>
+      <c r="B727"/>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728"/>
+      <c r="B728"/>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729"/>
+      <c r="B729"/>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730"/>
+      <c r="B730"/>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731"/>
+      <c r="B731"/>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732"/>
+      <c r="B732"/>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733"/>
+      <c r="B733"/>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734"/>
+      <c r="B734"/>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735"/>
+      <c r="B735"/>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736"/>
+      <c r="B736"/>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737"/>
+      <c r="B737"/>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738"/>
+      <c r="B738"/>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739"/>
+      <c r="B739"/>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740"/>
+      <c r="B740"/>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741"/>
+      <c r="B741"/>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742"/>
+      <c r="B742"/>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743"/>
+      <c r="B743"/>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744"/>
+      <c r="B744"/>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745"/>
+      <c r="B745"/>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746"/>
+      <c r="B746"/>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747"/>
+      <c r="B747"/>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748"/>
+      <c r="B748"/>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749"/>
+      <c r="B749"/>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750"/>
+      <c r="B750"/>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751"/>
+      <c r="B751"/>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752"/>
+      <c r="B752"/>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753"/>
+      <c r="B753"/>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754"/>
+      <c r="B754"/>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755"/>
+      <c r="B755"/>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756"/>
+      <c r="B756"/>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757"/>
+      <c r="B757"/>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758"/>
+      <c r="B758"/>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759"/>
+      <c r="B759"/>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760"/>
+      <c r="B760"/>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761"/>
+      <c r="B761"/>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762"/>
+      <c r="B762"/>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763"/>
+      <c r="B763"/>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764"/>
+      <c r="B764"/>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765"/>
+      <c r="B765"/>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766"/>
+      <c r="B766"/>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767"/>
+      <c r="B767"/>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768"/>
+      <c r="B768"/>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769"/>
+      <c r="B769"/>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770"/>
+      <c r="B770"/>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771"/>
+      <c r="B771"/>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772"/>
+      <c r="B772"/>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773"/>
+      <c r="B773"/>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774"/>
+      <c r="B774"/>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775"/>
+      <c r="B775"/>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776"/>
+      <c r="B776"/>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777"/>
+      <c r="B777"/>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778"/>
+      <c r="B778"/>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779"/>
+      <c r="B779"/>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780"/>
+      <c r="B780"/>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781"/>
+      <c r="B781"/>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782"/>
+      <c r="B782"/>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783"/>
+      <c r="B783"/>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784"/>
+      <c r="B784"/>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785"/>
+      <c r="B785"/>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786"/>
+      <c r="B786"/>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787"/>
+      <c r="B787"/>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788"/>
+      <c r="B788"/>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789"/>
+      <c r="B789"/>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790"/>
+      <c r="B790"/>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791"/>
+      <c r="B791"/>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792"/>
+      <c r="B792"/>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793"/>
+      <c r="B793"/>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794"/>
+      <c r="B794"/>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795"/>
+      <c r="B795"/>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796"/>
+      <c r="B796"/>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797"/>
+      <c r="B797"/>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798"/>
+      <c r="B798"/>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799"/>
+      <c r="B799"/>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800"/>
+      <c r="B800"/>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801"/>
+      <c r="B801"/>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802"/>
+      <c r="B802"/>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803"/>
+      <c r="B803"/>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804"/>
+      <c r="B804"/>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805"/>
+      <c r="B805"/>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806"/>
+      <c r="B806"/>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807"/>
+      <c r="B807"/>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808"/>
+      <c r="B808"/>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809"/>
+      <c r="B809"/>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810"/>
+      <c r="B810"/>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811"/>
+      <c r="B811"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B139">
+    <sortCondition ref="A2:A139"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/public/uploads/EjecucionFinanciera_EstructuraPlan.xlsx
+++ b/src/public/uploads/EjecucionFinanciera_EstructuraPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliocesarmendoza/Desktop/pipApp/Backend-pi/src/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899C73E-950B-9D4D-BB4F-4D9EE1FE2507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02DD759-17E5-0D4B-A0BB-997B16E7FDA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9740" yWindow="6320" windowWidth="37980" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,11 +1299,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
